--- a/Semana4/Entregas/EntregaMarianaL/FPC tarea final lunes 29 (1) (Autoguardado).xlsx
+++ b/Semana4/Entregas/EntregaMarianaL/FPC tarea final lunes 29 (1) (Autoguardado).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8180" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="FPC.csv" sheetId="1" r:id="rId1"/>
@@ -1790,7 +1790,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1828,14 +1827,39 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
+        <c:spPr>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent3"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent3"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
         <c:spPr>
           <a:pattFill prst="narHorz">
             <a:fgClr>
@@ -10108,7 +10132,6 @@
         <c:idx val="3"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -10146,14 +10169,39 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
+        <c:spPr>
+          <a:pattFill prst="narVert">
+            <a:fgClr>
+              <a:schemeClr val="accent5"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent5"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
         <c:spPr>
           <a:pattFill prst="narVert">
             <a:fgClr>
@@ -18751,6 +18799,17 @@
   <dataFields count="1">
     <dataField name="Promedio de GOLES" fld="1" subtotal="average" baseField="4" baseItem="7"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -19236,6 +19295,17 @@
   <dataFields count="1">
     <dataField name="Promedio de GOLES" fld="1" subtotal="average" baseField="5" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -19448,8 +19518,8 @@
   </sheetPr>
   <dimension ref="A1:AK100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="D1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19464,6 +19534,7 @@
     <col min="10" max="10" width="24.90625" customWidth="1"/>
     <col min="13" max="13" width="23.54296875" customWidth="1"/>
     <col min="16" max="16" width="23.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.08984375" customWidth="1"/>
     <col min="19" max="19" width="26" customWidth="1"/>
     <col min="20" max="20" width="23.26953125" customWidth="1"/>
     <col min="21" max="21" width="29.6328125" customWidth="1"/>
@@ -19731,11 +19802,11 @@
         <v>61</v>
       </c>
       <c r="J6">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K6" s="9" t="str">
         <f>HLOOKUP(K5, $B$1:$H$100, $J$6, FALSE)</f>
-        <v>JAMERSON RENTERIA</v>
+        <v>CARLOS BACCA</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" ref="L6:Q6" si="0">HLOOKUP(L5, $B$1:$H$100, $J$6, FALSE)</f>
@@ -19743,19 +19814,19 @@
       </c>
       <c r="M6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>REAL CARTAGENA</v>
+        <v>JUNIOR</v>
       </c>
       <c r="N6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>CARTAGENA</v>
+        <v>BARRANQUILLA</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" si="0"/>
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="Q6" s="9" t="str">
         <f t="shared" si="0"/>
@@ -23549,7 +23620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="59" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="59" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
